--- a/biology/Médecine/1439_en_santé_et_médecine/1439_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1439_en_santé_et_médecine/1439_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1439_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1439_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1439 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1439_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1439_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>27 mai : ordonnance par laquelle Henri VI, roi d'Angleterre et duc de Normandie, accorde des statuts particuliers à la faculté de médecine de Caen, qu'il vient de fonder en 1437[1].
-À Locronan, en Bretagne, un hospice encore occupé  en 1798 « par huit personnes malades et un gardien » est mentionné dans le testament d'un certain Jean le Moine[2].
-La très petite bibliothèque que laisse à sa mort un modeste médecin juif de La Almunia de Doña Godina, en Aragon, comporte l'Almageste de Ptolémée, l'Antidotaire de Nicolas et le Canon d'Avicenne, mais aucun ouvrage d'auteur juif[3].
-1439-1440 : « une grande mortalité sévit en Europe », provoquée par la peste qui frappe régulièrement depuis 1349[4].
-1439 et 1440 : Leonardo Bertapaglia (c. 1380-1463[5]), professeur de médecine à Padoue, pratique les deux dissections anatomiques qu'il mentionne dans son traité de chirurgie[6].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>27 mai : ordonnance par laquelle Henri VI, roi d'Angleterre et duc de Normandie, accorde des statuts particuliers à la faculté de médecine de Caen, qu'il vient de fonder en 1437.
+À Locronan, en Bretagne, un hospice encore occupé  en 1798 « par huit personnes malades et un gardien » est mentionné dans le testament d'un certain Jean le Moine.
+La très petite bibliothèque que laisse à sa mort un modeste médecin juif de La Almunia de Doña Godina, en Aragon, comporte l'Almageste de Ptolémée, l'Antidotaire de Nicolas et le Canon d'Avicenne, mais aucun ouvrage d'auteur juif.
+1439-1440 : « une grande mortalité sévit en Europe », provoquée par la peste qui frappe régulièrement depuis 1349.
+1439 et 1440 : Leonardo Bertapaglia (c. 1380-1463), professeur de médecine à Padoue, pratique les deux dissections anatomiques qu'il mentionne dans son traité de chirurgie.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1439_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1439_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le médecin chinois Xu Feng publie le Zhen Jiu Da Quan (« Collection complète d'acupuncture et de moxibustion[7] »).</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le médecin chinois Xu Feng publie le Zhen Jiu Da Quan (« Collection complète d'acupuncture et de moxibustion »).</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1439_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1439_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,12 +591,14 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Albert Dithmar (né à une date inconnue), médecin d'Antoine, duc de Brabant, et de ses fils, Jean et Philippe[8].
-Ugo Benzi (pt)[9] (né à une date inconnue), médecin italien, professeur de médecine et de philosophie à Bologne, Pavie, Padoue, Florence et Paris, auteur de divers ouvrages de médecine, dont un « régime de santé » publié à Milan en 1481[10].
-Astruc de Sestier (né à une date inconnue), médecin et chirurgien juif lettré, établi à Aix-en-Provence ; il lègue à sa mort une « bibliothèque exemplaire » de près de cent quatre-vingts ouvrages[11].
-Guillaume Le Fort (né à une date inconnue), apothicaire à Dijon, en Bourgogne, qui tenait une officine dont, à sa mort, « l'inventaire est dressé et montre que la famille a accumulé une fortune considérable[12] ».</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Albert Dithmar (né à une date inconnue), médecin d'Antoine, duc de Brabant, et de ses fils, Jean et Philippe.
+Ugo Benzi (pt) (né à une date inconnue), médecin italien, professeur de médecine et de philosophie à Bologne, Pavie, Padoue, Florence et Paris, auteur de divers ouvrages de médecine, dont un « régime de santé » publié à Milan en 1481.
+Astruc de Sestier (né à une date inconnue), médecin et chirurgien juif lettré, établi à Aix-en-Provence ; il lègue à sa mort une « bibliothèque exemplaire » de près de cent quatre-vingts ouvrages.
+Guillaume Le Fort (né à une date inconnue), apothicaire à Dijon, en Bourgogne, qui tenait une officine dont, à sa mort, « l'inventaire est dressé et montre que la famille a accumulé une fortune considérable ».</t>
         </is>
       </c>
     </row>
